--- a/artfynd/A 65292-2021.xlsx
+++ b/artfynd/A 65292-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66506075</v>
+        <v>66506108</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>405881.5566231</v>
+        <v>405858.11522537</v>
       </c>
       <c r="R2" t="n">
-        <v>7022709.702668532</v>
+        <v>7023292.185757651</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -779,7 +783,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>16187</t>
+          <t>16210</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -797,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66506108</v>
+        <v>66506107</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,32 +813,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
@@ -900,7 +900,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>16210</t>
+          <t>16209</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66506070</v>
+        <v>66506113</v>
       </c>
       <c r="B4" t="n">
-        <v>78533</v>
+        <v>94437</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,25 +930,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229748</v>
+        <v>990</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>405881.5566231</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R4" t="n">
-        <v>7022709.702668532</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>16183</t>
+          <t>16214</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66506078</v>
+        <v>66506109</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,34 +1051,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>405870.6460136588</v>
+        <v>405806.0578031743</v>
       </c>
       <c r="R5" t="n">
-        <v>7022767.577311509</v>
+        <v>7023297.759004536</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1134,7 +1138,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>16189</t>
+          <t>16211</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1152,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66506074</v>
+        <v>66506115</v>
       </c>
       <c r="B6" t="n">
-        <v>94437</v>
+        <v>78570</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,25 +1168,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>990</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1192,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405881.5566231</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R6" t="n">
-        <v>7022709.702668532</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1251,7 +1255,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>16216</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1269,10 +1273,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66506089</v>
+        <v>66506116</v>
       </c>
       <c r="B7" t="n">
-        <v>94121</v>
+        <v>78596</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,25 +1285,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1309,10 +1313,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>405881.7852296742</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R7" t="n">
-        <v>7022778.941451472</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1368,7 +1372,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>16197</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1386,10 +1390,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66506107</v>
+        <v>66506104</v>
       </c>
       <c r="B8" t="n">
-        <v>78596</v>
+        <v>85703</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,25 +1402,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>510</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1426,10 +1430,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>405858.11522537</v>
+        <v>405954.6653269421</v>
       </c>
       <c r="R8" t="n">
-        <v>7023292.185757651</v>
+        <v>7023268.675414776</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1485,7 +1489,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>16209</t>
+          <t>16207</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1503,7 +1507,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66506113</v>
+        <v>66506106</v>
       </c>
       <c r="B9" t="n">
         <v>94437</v>
@@ -1543,10 +1547,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>405747.493797935</v>
+        <v>405912.3164437371</v>
       </c>
       <c r="R9" t="n">
-        <v>7023281.045590743</v>
+        <v>7023282.953956532</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1602,7 +1606,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>16214</t>
+          <t>16208</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1620,10 +1624,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66506088</v>
+        <v>66506110</v>
       </c>
       <c r="B10" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1636,34 +1640,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>405881.7852296742</v>
+        <v>405806.0578031743</v>
       </c>
       <c r="R10" t="n">
-        <v>7022778.941451472</v>
+        <v>7023297.759004536</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1719,7 +1727,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>16196</t>
+          <t>16212</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1737,10 +1745,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66506077</v>
+        <v>66506111</v>
       </c>
       <c r="B11" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,38 +1757,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>405881.5566231</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R11" t="n">
-        <v>7022709.702668532</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1836,7 +1848,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>16188</t>
+          <t>16213</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1854,10 +1866,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66506084</v>
+        <v>106607554</v>
       </c>
       <c r="B12" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,41 +1878,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Väfjället, Jmt</t>
+          <t>Blötmon, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>405866.0287983776</v>
+        <v>405907.972216142</v>
       </c>
       <c r="R12" t="n">
-        <v>7022763.665890352</v>
+        <v>7023319.046742455</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1924,7 +1939,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1934,7 +1949,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1942,39 +1957,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>rikligt i området</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>16194</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66506092</v>
+        <v>106607553</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,37 +2003,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Väfjället, Jmt</t>
+          <t>Blötmon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>405956.3683471445</v>
+        <v>405976.7744501354</v>
       </c>
       <c r="R13" t="n">
-        <v>7022788.896274627</v>
+        <v>7023331.86637528</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2041,7 +2057,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2051,7 +2067,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2067,31 +2083,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>16200</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66506091</v>
+        <v>66506075</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,38 +2115,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>405881.7852296742</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R14" t="n">
-        <v>7022778.941451472</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2191,7 +2198,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>16199</t>
+          <t>16187</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2209,10 +2216,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66506109</v>
+        <v>66506070</v>
       </c>
       <c r="B15" t="n">
-        <v>81236</v>
+        <v>78533</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2221,42 +2228,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>229748</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>405806.0578031743</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R15" t="n">
-        <v>7023297.759004536</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>16211</t>
+          <t>16183</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2330,10 +2333,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66506072</v>
+        <v>66506078</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2346,21 +2349,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2370,10 +2373,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>405881.5566231</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R16" t="n">
-        <v>7022709.702668532</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2418,11 +2421,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>hackspår</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2434,7 +2432,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>16184</t>
+          <t>16189</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2452,7 +2450,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66506079</v>
+        <v>66506074</v>
       </c>
       <c r="B17" t="n">
         <v>94437</v>
@@ -2492,10 +2490,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>405870.6460136588</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R17" t="n">
-        <v>7022767.577311509</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2551,7 +2549,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>16190</t>
+          <t>16186</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2569,10 +2567,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66506094</v>
+        <v>66506089</v>
       </c>
       <c r="B18" t="n">
-        <v>94437</v>
+        <v>94121</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2581,25 +2579,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>990</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2609,10 +2607,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>405956.3683471445</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R18" t="n">
-        <v>7022788.896274627</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2668,7 +2666,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>16202</t>
+          <t>16197</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2686,10 +2684,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66506073</v>
+        <v>66506088</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2702,38 +2700,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>405881.5566231</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R19" t="n">
-        <v>7022709.702668532</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2789,7 +2783,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>16185</t>
+          <t>16196</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2807,10 +2801,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66506083</v>
+        <v>66506077</v>
       </c>
       <c r="B20" t="n">
-        <v>81236</v>
+        <v>89356</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2819,25 +2813,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2847,10 +2841,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>405866.0287983776</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R20" t="n">
-        <v>7022763.665890352</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2906,7 +2900,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>16193</t>
+          <t>16188</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2924,10 +2918,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66506090</v>
+        <v>66506084</v>
       </c>
       <c r="B21" t="n">
-        <v>94437</v>
+        <v>78596</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2936,25 +2930,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>990</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2964,10 +2958,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>405881.7852296742</v>
+        <v>405866.0287983776</v>
       </c>
       <c r="R21" t="n">
-        <v>7022778.941451472</v>
+        <v>7022763.665890352</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -3023,7 +3017,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>16198</t>
+          <t>16194</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3041,10 +3035,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66506082</v>
+        <v>66506092</v>
       </c>
       <c r="B22" t="n">
-        <v>89356</v>
+        <v>89410</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3053,25 +3047,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3081,10 +3075,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>405870.6460136588</v>
+        <v>405956.3683471445</v>
       </c>
       <c r="R22" t="n">
-        <v>7022767.577311509</v>
+        <v>7022788.896274627</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3140,7 +3134,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>16192</t>
+          <t>16200</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3158,10 +3152,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66506115</v>
+        <v>66506091</v>
       </c>
       <c r="B23" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3174,34 +3168,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>405747.493797935</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R23" t="n">
-        <v>7023281.045590743</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3257,7 +3255,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>16216</t>
+          <t>16199</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3275,10 +3273,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66506080</v>
+        <v>66506072</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3291,38 +3289,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>405870.6460136588</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R24" t="n">
-        <v>7022767.577311509</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3367,6 +3361,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>hackspår</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3378,7 +3377,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>16191</t>
+          <t>16184</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3396,10 +3395,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66506116</v>
+        <v>66506079</v>
       </c>
       <c r="B25" t="n">
-        <v>78596</v>
+        <v>94437</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3408,25 +3407,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>990</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3436,10 +3435,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>405747.493797935</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R25" t="n">
-        <v>7023281.045590743</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3495,7 +3494,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>16217</t>
+          <t>16190</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3513,10 +3512,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66506104</v>
+        <v>66506094</v>
       </c>
       <c r="B26" t="n">
-        <v>85703</v>
+        <v>94437</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3525,25 +3524,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>510</v>
+        <v>990</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3553,10 +3552,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>405954.6653269421</v>
+        <v>405956.3683471445</v>
       </c>
       <c r="R26" t="n">
-        <v>7023268.675414776</v>
+        <v>7022788.896274627</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3612,7 +3611,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>16207</t>
+          <t>16202</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3630,10 +3629,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66506106</v>
+        <v>66506073</v>
       </c>
       <c r="B27" t="n">
-        <v>94437</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3642,38 +3641,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>990</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>405912.3164437371</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R27" t="n">
-        <v>7023282.953956532</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3729,7 +3732,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>16208</t>
+          <t>16185</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3747,10 +3750,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66506110</v>
+        <v>66506083</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3763,38 +3766,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>405806.0578031743</v>
+        <v>405866.0287983776</v>
       </c>
       <c r="R28" t="n">
-        <v>7023297.759004536</v>
+        <v>7022763.665890352</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3850,7 +3849,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>16212</t>
+          <t>16193</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3868,10 +3867,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66506111</v>
+        <v>66506090</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>94437</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3880,42 +3879,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>990</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Warnst.) R.M.Schust.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>405747.493797935</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R29" t="n">
-        <v>7023281.045590743</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3971,7 +3966,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>16213</t>
+          <t>16198</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3989,10 +3984,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66506197</v>
+        <v>66506082</v>
       </c>
       <c r="B30" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4001,42 +3996,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>405895.9438374229</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R30" t="n">
-        <v>7022678.254914552</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4092,7 +4083,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>16275</t>
+          <t>16192</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4110,10 +4101,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66506196</v>
+        <v>66506080</v>
       </c>
       <c r="B31" t="n">
-        <v>94437</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4122,38 +4113,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>990</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>405895.9438374229</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R31" t="n">
-        <v>7022678.254914552</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4209,7 +4204,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>16274</t>
+          <t>16191</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4227,7 +4222,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66506093</v>
+        <v>66506197</v>
       </c>
       <c r="B32" t="n">
         <v>77506</v>
@@ -4262,7 +4257,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4271,10 +4266,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>405956.3683471445</v>
+        <v>405895.9438374229</v>
       </c>
       <c r="R32" t="n">
-        <v>7022788.896274627</v>
+        <v>7022678.254914552</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4330,7 +4325,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>16201</t>
+          <t>16275</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4348,10 +4343,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66506087</v>
+        <v>66506196</v>
       </c>
       <c r="B33" t="n">
-        <v>77506</v>
+        <v>94437</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4360,42 +4355,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>990</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Warnst.) R.M.Schust.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>405866.0287983776</v>
+        <v>405895.9438374229</v>
       </c>
       <c r="R33" t="n">
-        <v>7022763.665890352</v>
+        <v>7022678.254914552</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4451,7 +4442,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>16195</t>
+          <t>16274</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4469,10 +4460,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>106607548</v>
+        <v>66506093</v>
       </c>
       <c r="B34" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4485,41 +4476,41 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Blötmon, Jmt</t>
+          <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>405849.2046414915</v>
+        <v>405956.3683471445</v>
       </c>
       <c r="R34" t="n">
-        <v>7022819.464876738</v>
+        <v>7022788.896274627</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4543,7 +4534,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4553,7 +4544,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4561,11 +4552,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4574,23 +4560,28 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>16201</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>106607555</v>
+        <v>66506087</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4623,23 +4614,24 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Blötmon, Jmt</t>
+          <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>405698.7754608158</v>
+        <v>405866.0287983776</v>
       </c>
       <c r="R35" t="n">
-        <v>7022710.569253176</v>
+        <v>7022763.665890352</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4663,7 +4655,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4673,7 +4665,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4681,37 +4673,36 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>rikligt i området</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>16195</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>106607550</v>
+        <v>106607548</v>
       </c>
       <c r="B36" t="n">
         <v>56395</v>
@@ -4755,10 +4746,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>405728.6263300827</v>
+        <v>405849.2046414915</v>
       </c>
       <c r="R36" t="n">
-        <v>7022853.128544986</v>
+        <v>7022819.464876738</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4832,10 +4823,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>106607551</v>
+        <v>106607555</v>
       </c>
       <c r="B37" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4848,27 +4839,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4876,10 +4866,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>405724.9351480401</v>
+        <v>405698.7754608158</v>
       </c>
       <c r="R37" t="n">
-        <v>7022850.089501845</v>
+        <v>7022710.569253176</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4926,7 +4916,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>rikligt i området</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4935,6 +4925,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4953,7 +4944,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>106607549</v>
+        <v>106607550</v>
       </c>
       <c r="B38" t="n">
         <v>56395</v>
@@ -4997,10 +4988,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>405825.1512338521</v>
+        <v>405728.6263300827</v>
       </c>
       <c r="R38" t="n">
-        <v>7022812.976138189</v>
+        <v>7022853.128544986</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5074,10 +5065,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>106607552</v>
+        <v>106607551</v>
       </c>
       <c r="B39" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5090,16 +5081,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5118,10 +5109,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>405693.8532243728</v>
+        <v>405724.9351480401</v>
       </c>
       <c r="R39" t="n">
-        <v>7022711.613128311</v>
+        <v>7022850.089501845</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5168,7 +5159,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5195,10 +5186,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>106607554</v>
+        <v>106607549</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5211,26 +5202,27 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5238,10 +5230,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>405907.972216142</v>
+        <v>405825.1512338521</v>
       </c>
       <c r="R40" t="n">
-        <v>7023319.046742455</v>
+        <v>7022812.976138189</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5288,7 +5280,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>rikligt i området</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5297,7 +5289,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5316,10 +5307,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>106607553</v>
+        <v>106607552</v>
       </c>
       <c r="B41" t="n">
-        <v>78570</v>
+        <v>56411</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5332,34 +5323,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2081</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Blötmon, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>405976.7744501354</v>
+        <v>405693.8532243728</v>
       </c>
       <c r="R41" t="n">
-        <v>7023331.86637528</v>
+        <v>7022711.613128311</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5402,6 +5397,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 65292-2021.xlsx
+++ b/artfynd/A 65292-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66506108</v>
+        <v>66506075</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>405858.11522537</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R2" t="n">
-        <v>7023292.185757651</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -783,7 +779,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>16210</t>
+          <t>16187</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66506107</v>
+        <v>66506108</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,28 +809,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
@@ -900,7 +900,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>16209</t>
+          <t>16210</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66506113</v>
+        <v>66506070</v>
       </c>
       <c r="B4" t="n">
-        <v>94437</v>
+        <v>78533</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,25 +930,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>990</v>
+        <v>229748</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>405747.493797935</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R4" t="n">
-        <v>7023281.045590743</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>16214</t>
+          <t>16183</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66506109</v>
+        <v>66506078</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,38 +1051,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>405806.0578031743</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R5" t="n">
-        <v>7023297.759004536</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1138,7 +1134,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>16211</t>
+          <t>16189</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1156,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66506115</v>
+        <v>66506074</v>
       </c>
       <c r="B6" t="n">
-        <v>78570</v>
+        <v>94437</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,25 +1164,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>990</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405747.493797935</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R6" t="n">
-        <v>7023281.045590743</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1255,7 +1251,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>16216</t>
+          <t>16186</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1273,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66506116</v>
+        <v>66506089</v>
       </c>
       <c r="B7" t="n">
-        <v>78596</v>
+        <v>94121</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,25 +1281,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1313,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>405747.493797935</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R7" t="n">
-        <v>7023281.045590743</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1372,7 +1368,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>16217</t>
+          <t>16197</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1390,10 +1386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66506104</v>
+        <v>66506107</v>
       </c>
       <c r="B8" t="n">
-        <v>85703</v>
+        <v>78596</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,25 +1398,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>510</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1430,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>405954.6653269421</v>
+        <v>405858.11522537</v>
       </c>
       <c r="R8" t="n">
-        <v>7023268.675414776</v>
+        <v>7023292.185757651</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1489,7 +1485,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>16207</t>
+          <t>16209</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1507,7 +1503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66506106</v>
+        <v>66506113</v>
       </c>
       <c r="B9" t="n">
         <v>94437</v>
@@ -1547,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>405912.3164437371</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R9" t="n">
-        <v>7023282.953956532</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1606,7 +1602,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>16208</t>
+          <t>16214</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1624,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66506110</v>
+        <v>66506088</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1640,38 +1636,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>405806.0578031743</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R10" t="n">
-        <v>7023297.759004536</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1727,7 +1719,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>16212</t>
+          <t>16196</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1745,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66506111</v>
+        <v>66506077</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1757,42 +1749,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>405747.493797935</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R11" t="n">
-        <v>7023281.045590743</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1848,7 +1836,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>16213</t>
+          <t>16188</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1866,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106607554</v>
+        <v>66506084</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1878,44 +1866,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Blötmon, Jmt</t>
+          <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>405907.972216142</v>
+        <v>405866.0287983776</v>
       </c>
       <c r="R12" t="n">
-        <v>7023319.046742455</v>
+        <v>7022763.665890352</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1939,7 +1924,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1949,7 +1934,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1957,40 +1942,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>rikligt i området</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>16194</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106607553</v>
+        <v>66506092</v>
       </c>
       <c r="B13" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2003,37 +1987,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Blötmon, Jmt</t>
+          <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>405976.7744501354</v>
+        <v>405956.3683471445</v>
       </c>
       <c r="R13" t="n">
-        <v>7023331.86637528</v>
+        <v>7022788.896274627</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2057,7 +2041,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2067,7 +2051,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2013-09-12</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2083,26 +2067,31 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>16200</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66506075</v>
+        <v>66506091</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2115,34 +2104,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>405881.5566231</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R14" t="n">
-        <v>7022709.702668532</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2198,7 +2191,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>16187</t>
+          <t>16199</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2216,10 +2209,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66506070</v>
+        <v>66506109</v>
       </c>
       <c r="B15" t="n">
-        <v>78533</v>
+        <v>81236</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2228,38 +2221,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>229748</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>405881.5566231</v>
+        <v>405806.0578031743</v>
       </c>
       <c r="R15" t="n">
-        <v>7022709.702668532</v>
+        <v>7023297.759004536</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2315,7 +2312,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>16183</t>
+          <t>16211</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2333,10 +2330,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66506078</v>
+        <v>66506072</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2349,21 +2346,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2373,10 +2370,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>405870.6460136588</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R16" t="n">
-        <v>7022767.577311509</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2421,6 +2418,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>hackspår</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2432,7 +2434,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>16189</t>
+          <t>16184</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2450,7 +2452,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66506074</v>
+        <v>66506079</v>
       </c>
       <c r="B17" t="n">
         <v>94437</v>
@@ -2490,10 +2492,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>405881.5566231</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R17" t="n">
-        <v>7022709.702668532</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2549,7 +2551,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>16190</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2567,10 +2569,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66506089</v>
+        <v>66506094</v>
       </c>
       <c r="B18" t="n">
-        <v>94121</v>
+        <v>94437</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,25 +2581,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>990</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2607,10 +2609,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>405881.7852296742</v>
+        <v>405956.3683471445</v>
       </c>
       <c r="R18" t="n">
-        <v>7022778.941451472</v>
+        <v>7022788.896274627</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2666,7 +2668,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>16197</t>
+          <t>16202</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2684,10 +2686,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66506088</v>
+        <v>66506073</v>
       </c>
       <c r="B19" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2700,34 +2702,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>405881.7852296742</v>
+        <v>405881.5566231</v>
       </c>
       <c r="R19" t="n">
-        <v>7022778.941451472</v>
+        <v>7022709.702668532</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2783,7 +2789,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>16196</t>
+          <t>16185</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2801,10 +2807,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66506077</v>
+        <v>66506083</v>
       </c>
       <c r="B20" t="n">
-        <v>89356</v>
+        <v>81236</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2813,25 +2819,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2841,10 +2847,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>405881.5566231</v>
+        <v>405866.0287983776</v>
       </c>
       <c r="R20" t="n">
-        <v>7022709.702668532</v>
+        <v>7022763.665890352</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2900,7 +2906,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>16188</t>
+          <t>16193</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2918,10 +2924,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66506084</v>
+        <v>66506090</v>
       </c>
       <c r="B21" t="n">
-        <v>78596</v>
+        <v>94437</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2930,25 +2936,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>990</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2958,10 +2964,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>405866.0287983776</v>
+        <v>405881.7852296742</v>
       </c>
       <c r="R21" t="n">
-        <v>7022763.665890352</v>
+        <v>7022778.941451472</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -3017,7 +3023,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>16194</t>
+          <t>16198</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3035,10 +3041,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66506092</v>
+        <v>66506082</v>
       </c>
       <c r="B22" t="n">
-        <v>89410</v>
+        <v>89356</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3047,25 +3053,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3075,10 +3081,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>405956.3683471445</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R22" t="n">
-        <v>7022788.896274627</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3134,7 +3140,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>16200</t>
+          <t>16192</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3152,10 +3158,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66506091</v>
+        <v>66506115</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3168,38 +3174,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>405881.7852296742</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R23" t="n">
-        <v>7022778.941451472</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3255,7 +3257,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>16199</t>
+          <t>16216</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3273,10 +3275,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66506072</v>
+        <v>66506080</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3289,34 +3291,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>405881.5566231</v>
+        <v>405870.6460136588</v>
       </c>
       <c r="R24" t="n">
-        <v>7022709.702668532</v>
+        <v>7022767.577311509</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3361,11 +3367,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>hackspår</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3377,7 +3378,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>16184</t>
+          <t>16191</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3395,10 +3396,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66506079</v>
+        <v>66506116</v>
       </c>
       <c r="B25" t="n">
-        <v>94437</v>
+        <v>78596</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3407,25 +3408,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>990</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3435,10 +3436,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>405870.6460136588</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R25" t="n">
-        <v>7022767.577311509</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3494,7 +3495,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>16190</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3512,10 +3513,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66506094</v>
+        <v>66506104</v>
       </c>
       <c r="B26" t="n">
-        <v>94437</v>
+        <v>85703</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3524,25 +3525,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>990</v>
+        <v>510</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3552,10 +3553,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>405956.3683471445</v>
+        <v>405954.6653269421</v>
       </c>
       <c r="R26" t="n">
-        <v>7022788.896274627</v>
+        <v>7023268.675414776</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3611,7 +3612,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>16202</t>
+          <t>16207</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3629,10 +3630,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66506073</v>
+        <v>66506106</v>
       </c>
       <c r="B27" t="n">
-        <v>77506</v>
+        <v>94437</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3641,42 +3642,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>990</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Warnst.) R.M.Schust.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>405881.5566231</v>
+        <v>405912.3164437371</v>
       </c>
       <c r="R27" t="n">
-        <v>7022709.702668532</v>
+        <v>7023282.953956532</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3732,7 +3729,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>16185</t>
+          <t>16208</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3750,10 +3747,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66506083</v>
+        <v>66506110</v>
       </c>
       <c r="B28" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3766,34 +3763,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>405866.0287983776</v>
+        <v>405806.0578031743</v>
       </c>
       <c r="R28" t="n">
-        <v>7022763.665890352</v>
+        <v>7023297.759004536</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3849,7 +3850,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>16193</t>
+          <t>16212</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3867,10 +3868,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66506090</v>
+        <v>66506111</v>
       </c>
       <c r="B29" t="n">
-        <v>94437</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3879,38 +3880,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>990</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>405881.7852296742</v>
+        <v>405747.493797935</v>
       </c>
       <c r="R29" t="n">
-        <v>7022778.941451472</v>
+        <v>7023281.045590743</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3966,7 +3971,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>16198</t>
+          <t>16213</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3984,10 +3989,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66506082</v>
+        <v>66506197</v>
       </c>
       <c r="B30" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3996,38 +4001,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>405870.6460136588</v>
+        <v>405895.9438374229</v>
       </c>
       <c r="R30" t="n">
-        <v>7022767.577311509</v>
+        <v>7022678.254914552</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4083,7 +4092,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>16192</t>
+          <t>16275</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4101,10 +4110,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66506080</v>
+        <v>66506196</v>
       </c>
       <c r="B31" t="n">
-        <v>77506</v>
+        <v>94437</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4113,42 +4122,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>990</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Warnst.) R.M.Schust.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>405870.6460136588</v>
+        <v>405895.9438374229</v>
       </c>
       <c r="R31" t="n">
-        <v>7022767.577311509</v>
+        <v>7022678.254914552</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4204,7 +4209,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>16191</t>
+          <t>16274</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4222,7 +4227,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66506197</v>
+        <v>66506093</v>
       </c>
       <c r="B32" t="n">
         <v>77506</v>
@@ -4257,7 +4262,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4266,10 +4271,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>405895.9438374229</v>
+        <v>405956.3683471445</v>
       </c>
       <c r="R32" t="n">
-        <v>7022678.254914552</v>
+        <v>7022788.896274627</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4325,7 +4330,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>16275</t>
+          <t>16201</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4343,10 +4348,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66506196</v>
+        <v>66506087</v>
       </c>
       <c r="B33" t="n">
-        <v>94437</v>
+        <v>77506</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4355,38 +4360,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>990</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Väfjället, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>405895.9438374229</v>
+        <v>405866.0287983776</v>
       </c>
       <c r="R33" t="n">
-        <v>7022678.254914552</v>
+        <v>7022763.665890352</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4442,7 +4451,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>16274</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4460,10 +4469,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66506093</v>
+        <v>106607548</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4476,41 +4485,41 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Väfjället, Jmt</t>
+          <t>Blötmon, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>405956.3683471445</v>
+        <v>405849.2046414915</v>
       </c>
       <c r="R34" t="n">
-        <v>7022788.896274627</v>
+        <v>7022819.464876738</v>
       </c>
       <c r="S34" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4534,7 +4543,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4544,7 +4553,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4552,6 +4561,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4560,28 +4574,23 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>16201</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>66506087</v>
+        <v>106607555</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4614,24 +4623,23 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Väfjället, Jmt</t>
+          <t>Blötmon, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>405866.0287983776</v>
+        <v>405698.7754608158</v>
       </c>
       <c r="R35" t="n">
-        <v>7022763.665890352</v>
+        <v>7022710.569253176</v>
       </c>
       <c r="S35" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4655,7 +4663,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4665,7 +4673,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2013-09-12</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4673,36 +4681,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>rikligt i området</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>16195</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>106607548</v>
+        <v>106607550</v>
       </c>
       <c r="B36" t="n">
         <v>56395</v>
@@ -4746,10 +4755,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>405849.2046414915</v>
+        <v>405728.6263300827</v>
       </c>
       <c r="R36" t="n">
-        <v>7022819.464876738</v>
+        <v>7022853.128544986</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4823,10 +4832,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>106607555</v>
+        <v>106607551</v>
       </c>
       <c r="B37" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4839,26 +4848,27 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4866,10 +4876,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>405698.7754608158</v>
+        <v>405724.9351480401</v>
       </c>
       <c r="R37" t="n">
-        <v>7022710.569253176</v>
+        <v>7022850.089501845</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4916,7 +4926,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>rikligt i området</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4925,7 +4935,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4944,7 +4953,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>106607550</v>
+        <v>106607549</v>
       </c>
       <c r="B38" t="n">
         <v>56395</v>
@@ -4988,10 +4997,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>405728.6263300827</v>
+        <v>405825.1512338521</v>
       </c>
       <c r="R38" t="n">
-        <v>7022853.128544986</v>
+        <v>7022812.976138189</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5065,10 +5074,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>106607551</v>
+        <v>106607552</v>
       </c>
       <c r="B39" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5081,16 +5090,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5109,10 +5118,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>405724.9351480401</v>
+        <v>405693.8532243728</v>
       </c>
       <c r="R39" t="n">
-        <v>7022850.089501845</v>
+        <v>7022711.613128311</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5159,7 +5168,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5186,10 +5195,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>106607549</v>
+        <v>106607554</v>
       </c>
       <c r="B40" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5202,27 +5211,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5230,10 +5238,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>405825.1512338521</v>
+        <v>405907.972216142</v>
       </c>
       <c r="R40" t="n">
-        <v>7022812.976138189</v>
+        <v>7023319.046742455</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5280,7 +5288,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>rikligt i området</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5289,6 +5297,7 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5307,10 +5316,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>106607552</v>
+        <v>106607553</v>
       </c>
       <c r="B41" t="n">
-        <v>56411</v>
+        <v>78570</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5323,38 +5332,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>2081</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Blötmon, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>405693.8532243728</v>
+        <v>405976.7744501354</v>
       </c>
       <c r="R41" t="n">
-        <v>7022711.613128311</v>
+        <v>7023331.86637528</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5397,11 +5402,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD41" t="b">
